--- a/Cryogenic Control Statistics.xlsx
+++ b/Cryogenic Control Statistics.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cache" sheetId="2" r:id="rId1"/>
     <sheet name="BWT" sheetId="1" r:id="rId2"/>
+    <sheet name="BWT Satistics" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="64">
   <si>
     <t>Module Name</t>
   </si>
@@ -102,12 +103,130 @@
   <si>
     <t>SIMD K = 2, D = 1024, LPFS Schedule</t>
   </si>
+  <si>
+    <t>RESULTS</t>
+  </si>
+  <si>
+    <t>Number of Decompressions</t>
+  </si>
+  <si>
+    <t>Number of Recompressions</t>
+  </si>
+  <si>
+    <t>Cache Capacity</t>
+  </si>
+  <si>
+    <t>1 Module</t>
+  </si>
+  <si>
+    <t>Size Comparisons</t>
+  </si>
+  <si>
+    <t>Number of Hits</t>
+  </si>
+  <si>
+    <t>Number of Misses</t>
+  </si>
+  <si>
+    <t>------- Cryogenic Control Module Statistics ----------</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BWT</t>
+  </si>
+  <si>
+    <t>Size of Cache</t>
+  </si>
+  <si>
+    <t>Cache associativity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> full</t>
+  </si>
+  <si>
+    <t>Cache eviction policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FIFO</t>
+  </si>
+  <si>
+    <t>Number of modules run</t>
+  </si>
+  <si>
+    <t>Number of module decompressions</t>
+  </si>
+  <si>
+    <t>Number of module recompressions</t>
+  </si>
+  <si>
+    <t>Number of cache hits</t>
+  </si>
+  <si>
+    <t>Number of cache misses</t>
+  </si>
+  <si>
+    <t>Done.</t>
+  </si>
+  <si>
+    <t>6 Modules                 (13.8 MB)</t>
+  </si>
+  <si>
+    <t>7 Modules               (16.1 MB)</t>
+  </si>
+  <si>
+    <t>Assumptions:</t>
+  </si>
+  <si>
+    <t>(For BWT: 1.64 MB lower bound)</t>
+  </si>
+  <si>
+    <t>1. External memory capable of containing all of the compressed modules</t>
+  </si>
+  <si>
+    <t>2. Modules are downloaded in compressed form, in program order. If they are currently contained (and uncompressed) in the cache, no</t>
+  </si>
+  <si>
+    <t>actions are taken. If the cache misses, the module is downloaded and decompressed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. If the cache needs to evict, the victim module is recompressed and evicted. </t>
+  </si>
+  <si>
+    <t>4. Lower bound on cache capacity is the size of the largest uncompressed module.</t>
+  </si>
+  <si>
+    <t>1 Module                                     (2.3 MB)</t>
+  </si>
+  <si>
+    <t>2 Modules                                   (4.6 MB)</t>
+  </si>
+  <si>
+    <t>3 Modules                              (6.9 MB)</t>
+  </si>
+  <si>
+    <t>4 Modules                                  (9.2 MB)</t>
+  </si>
+  <si>
+    <t>5 Modules                                           (11.5 MB)</t>
+  </si>
+  <si>
+    <t>1200 Modules w/o Intrinsics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,16 +264,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -162,64 +307,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="51"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="52" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="68">
+    <cellStyle name="Check Cell" xfId="51" builtinId="23"/>
+    <cellStyle name="Explanatory Text" xfId="53" builtinId="53"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -243,6 +444,15 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -266,11 +476,358 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="52" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Binary</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Welded Tree n100s100 K=2 D=1024 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0826792386123575"/>
+          <c:y val="0.146153846153846"/>
+          <c:w val="0.860607115421548"/>
+          <c:h val="0.66042751867555"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Decompressions</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>BWT!$E$20:$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 Module                                     (2.3 MB)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Modules                                   (4.6 MB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 Modules                              (6.9 MB)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 Modules                                  (9.2 MB)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Modules                                           (11.5 MB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BWT!$E$21:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>534.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Recompressions</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>BWT!$E$20:$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 Module                                     (2.3 MB)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Modules                                   (4.6 MB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 Modules                              (6.9 MB)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 Modules                                  (9.2 MB)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Modules                                           (11.5 MB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BWT!$E$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1199.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>598.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>531.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>496.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2137310360"/>
+        <c:axId val="2137017144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2137310360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cache Capacity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137017144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2137017144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Module Actions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.010398589311591"/>
+              <c:y val="0.34161018638493"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137310360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.805538654259127"/>
+          <c:y val="0.150444283863251"/>
+          <c:w val="0.135533608725046"/>
+          <c:h val="0.180904515100169"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1554480</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,7 +1154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -635,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1526"/>
+  <dimension ref="A1:K1526"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -646,13 +1203,14 @@
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
     <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -843,6 +1401,9 @@
       <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="2" t="s">
@@ -859,6 +1420,12 @@
       </c>
       <c r="F11">
         <v>392996</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11">
+        <v>2277177</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -921,77 +1488,259 @@
         <v>393952</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="16" spans="1:10">
+      <c r="E16">
+        <f>SUM(E11:E15)</f>
+        <v>9247230</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="F17">
+        <f>SUM(F11:F15)+8</f>
+        <v>1631284</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="16" thickBot="1">
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:11" ht="17" thickTop="1" thickBot="1">
       <c r="C19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="3:3">
+      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="16" thickTop="1">
       <c r="C20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="3:3">
+      <c r="D20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
       <c r="C21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="3:3">
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21">
+        <v>1200</v>
+      </c>
+      <c r="F21">
+        <v>600</v>
+      </c>
+      <c r="G21">
+        <v>534</v>
+      </c>
+      <c r="H21">
+        <v>500</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
       <c r="C22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="3:3">
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>1199</v>
+      </c>
+      <c r="F22">
+        <v>598</v>
+      </c>
+      <c r="G22">
+        <v>531</v>
+      </c>
+      <c r="H22">
+        <v>496</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
       <c r="C23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="3:3">
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>600</v>
+      </c>
+      <c r="G23">
+        <v>666</v>
+      </c>
+      <c r="H23">
+        <v>700</v>
+      </c>
+      <c r="I23">
+        <v>1195</v>
+      </c>
+      <c r="J23">
+        <v>1195</v>
+      </c>
+      <c r="K23">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
       <c r="C24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:3">
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24">
+        <v>1200</v>
+      </c>
+      <c r="F24">
+        <v>600</v>
+      </c>
+      <c r="G24">
+        <v>534</v>
+      </c>
+      <c r="H24">
+        <v>500</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
       <c r="C25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:11">
       <c r="C26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="3:3">
+      <c r="D26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="3:11">
       <c r="C27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="3:3">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="3:11">
       <c r="C28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="3:3">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="3:11">
       <c r="C29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="3:3">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="3:11">
       <c r="C30" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="3:3">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="3:11">
       <c r="C31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="3:3">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="3:11">
       <c r="C32" t="s">
         <v>19</v>
       </c>
@@ -8471,12 +9220,611 @@
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="B11:B15"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="1048575" man="1"/>
   </colBreaks>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="41.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>6900000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>9200000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47">
+        <v>11500000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58">
+        <v>13800000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69">
+        <v>16100000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Cryogenic Control Statistics.xlsx
+++ b/Cryogenic Control Statistics.xlsx
@@ -522,9 +522,18 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Welded Tree n100s100 K=2 D=1024 </a:t>
+              <a:t> Welded Tree n100s100 K=2 D=1024</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0"/>
+              <a:t>Total Number of Module Calls: 1200 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -775,8 +784,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.805538654259127"/>
-          <c:y val="0.150444283863251"/>
+          <c:x val="0.805538643171462"/>
+          <c:y val="0.144115169939201"/>
           <c:w val="0.135533608725046"/>
           <c:h val="0.180904515100169"/>
         </c:manualLayout>
@@ -1194,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>

--- a/Cryogenic Control Statistics.xlsx
+++ b/Cryogenic Control Statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14500" yWindow="200" windowWidth="14100" windowHeight="8320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cache" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="61">
   <si>
     <t>Module Name</t>
   </si>
@@ -51,15 +51,6 @@
   </si>
   <si>
     <t>Uncompressed Size (bytes)</t>
-  </si>
-  <si>
-    <t>Compressed Instruction Size (bytes)</t>
-  </si>
-  <si>
-    <t>Uncompressed Size (KB)</t>
-  </si>
-  <si>
-    <t>Compressed Instruction Size (KB)</t>
   </si>
   <si>
     <t xml:space="preserve">Binary Welded Tree </t>
@@ -338,7 +329,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="68">
+  <cellStyleXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -407,18 +398,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="51"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="52" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="51"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="52" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="68">
+  <cellStyles count="70">
     <cellStyle name="Check Cell" xfId="51" builtinId="23"/>
     <cellStyle name="Explanatory Text" xfId="53" builtinId="53"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -453,6 +446,7 @@
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -485,6 +479,7 @@
     <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="52" builtinId="10"/>
   </cellStyles>
@@ -696,11 +691,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2137310360"/>
-        <c:axId val="2137017144"/>
+        <c:axId val="-2099056120"/>
+        <c:axId val="-2099050616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137310360"/>
+        <c:axId val="-2099056120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,7 +723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137017144"/>
+        <c:crossAx val="-2099050616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -736,7 +731,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137017144"/>
+        <c:axId val="-2099050616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,7 +768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137310360"/>
+        <c:crossAx val="-2099056120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1175,7 +1170,7 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -1203,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1213,8 +1208,8 @@
     <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.83203125" bestFit="1" customWidth="1"/>
@@ -1222,15 +1217,15 @@
     <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1241,24 +1236,15 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1267,28 +1253,14 @@
         <v>77981</v>
       </c>
       <c r="E5">
-        <f>D5*32</f>
-        <v>2495392</v>
+        <v>264817</v>
       </c>
       <c r="F5">
-        <f>E5/8</f>
-        <v>311924</v>
-      </c>
-      <c r="G5">
-        <f>F5/(1000)</f>
-        <v>311.92399999999998</v>
-      </c>
-      <c r="I5">
-        <f>H5/8</f>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>I5/1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="2"/>
+        <v>116076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="5"/>
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -1296,28 +1268,14 @@
         <v>12092</v>
       </c>
       <c r="E6">
-        <f>D6*32</f>
-        <v>386944</v>
+        <v>40358</v>
       </c>
       <c r="F6">
-        <f>E6/8</f>
-        <v>48368</v>
-      </c>
-      <c r="G6">
-        <f>F6/(1000)</f>
-        <v>48.368000000000002</v>
-      </c>
-      <c r="I6">
-        <f>H6/8</f>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>I6/1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="2"/>
+        <v>17803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -1325,28 +1283,14 @@
         <v>77890</v>
       </c>
       <c r="E7">
-        <f>D7*32</f>
-        <v>2492480</v>
+        <v>264814</v>
       </c>
       <c r="F7">
-        <f>E7/8</f>
-        <v>311560</v>
-      </c>
-      <c r="G7">
-        <f>F7/(1000)</f>
-        <v>311.56</v>
-      </c>
-      <c r="I7">
-        <f>H7/8</f>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>I7/1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="2"/>
+        <v>115929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -1354,28 +1298,14 @@
         <v>77844</v>
       </c>
       <c r="E8">
-        <f>D8*32</f>
-        <v>2491008</v>
+        <v>264676</v>
       </c>
       <c r="F8">
-        <f>E8/8</f>
-        <v>311376</v>
-      </c>
-      <c r="G8">
-        <f>F8/(1000)</f>
-        <v>311.37599999999998</v>
-      </c>
-      <c r="I8">
-        <f>H8/8</f>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>I8/1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="2"/>
+        <v>115699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="5"/>
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -1383,40 +1313,26 @@
         <v>77841</v>
       </c>
       <c r="E9">
-        <f>D9*32</f>
-        <v>2490912</v>
+        <v>264667</v>
       </c>
       <c r="F9">
-        <f>E9/8</f>
-        <v>311364</v>
-      </c>
-      <c r="G9">
-        <f>F9/(1000)</f>
-        <v>311.36399999999998</v>
-      </c>
-      <c r="I9">
-        <f>H9/8</f>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f>I9/1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>115937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -1431,14 +1347,14 @@
         <v>392996</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11">
         <v>2277177</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="2"/>
+    <row r="12" spans="1:9">
+      <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -1452,8 +1368,8 @@
         <v>57819</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="2"/>
+    <row r="13" spans="1:9">
+      <c r="B13" s="5"/>
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -1467,8 +1383,8 @@
         <v>392999</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="2"/>
+    <row r="14" spans="1:9">
+      <c r="B14" s="5"/>
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -1482,8 +1398,8 @@
         <v>393510</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="2"/>
+    <row r="15" spans="1:9">
+      <c r="B15" s="5"/>
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -1497,7 +1413,7 @@
         <v>393952</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:9">
       <c r="E16">
         <f>SUM(E11:E15)</f>
         <v>9247230</v>
@@ -1511,55 +1427,55 @@
     </row>
     <row r="18" spans="3:11" ht="16" thickBot="1">
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="3:11" ht="17" thickTop="1" thickBot="1">
       <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
         <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="3:11" ht="16" thickTop="1">
       <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>63</v>
+        <v>16</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
         <v>58</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" t="s">
-        <v>62</v>
-      </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="3:11">
       <c r="C21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>1200</v>
@@ -1585,10 +1501,10 @@
     </row>
     <row r="22" spans="3:11">
       <c r="C22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>1199</v>
@@ -1614,10 +1530,10 @@
     </row>
     <row r="23" spans="3:11">
       <c r="C23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1643,10 +1559,10 @@
     </row>
     <row r="24" spans="3:11">
       <c r="C24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>1200</v>
@@ -1672,1051 +1588,1051 @@
     </row>
     <row r="25" spans="3:11">
       <c r="C25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="3:11">
       <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="3:11">
       <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="3:11">
       <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="3:11">
       <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="3:11">
       <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="3:11">
       <c r="C32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="3:3">
       <c r="C115" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="3:3">
       <c r="C126" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="3:3">
       <c r="C129" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="3:3">
       <c r="C130" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="3:3">
       <c r="C131" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="3:3">
       <c r="C132" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="3:3">
       <c r="C133" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="3:3">
       <c r="C136" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="3:3">
       <c r="C138" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="3:3">
       <c r="C143" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="3:3">
       <c r="C144" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="3:3">
       <c r="C150" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="3:3">
       <c r="C153" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="3:3">
       <c r="C154" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="3:3">
       <c r="C155" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="3:3">
       <c r="C156" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="3:3">
       <c r="C157" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="3:3">
       <c r="C158" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="3:3">
       <c r="C159" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="3:3">
       <c r="C160" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="3:3">
       <c r="C161" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="3:3">
       <c r="C162" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="3:3">
       <c r="C163" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" spans="3:3">
       <c r="C164" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="3:3">
       <c r="C165" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="3:3">
       <c r="C166" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="3:3">
       <c r="C167" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="3:3">
       <c r="C168" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="3:3">
       <c r="C169" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170" spans="3:3">
       <c r="C170" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="3:3">
       <c r="C171" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172" spans="3:3">
       <c r="C172" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="3:3">
       <c r="C173" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="3:3">
       <c r="C174" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="3:3">
       <c r="C175" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="3:3">
       <c r="C176" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="3:3">
       <c r="C177" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="3:3">
       <c r="C178" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="3:3">
       <c r="C179" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="3:3">
       <c r="C180" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="3:3">
       <c r="C181" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" spans="3:3">
       <c r="C182" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" spans="3:3">
       <c r="C183" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="3:3">
       <c r="C184" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="3:3">
       <c r="C185" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="3:3">
       <c r="C186" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="3:3">
       <c r="C187" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="3:3">
       <c r="C188" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="3:3">
       <c r="C189" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" spans="3:3">
       <c r="C190" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="3:3">
       <c r="C191" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="3:3">
       <c r="C193" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="3:3">
       <c r="C194" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="3:3">
       <c r="C195" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" spans="3:3">
       <c r="C196" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="3:3">
       <c r="C197" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="3:3">
       <c r="C198" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="3:3">
       <c r="C199" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="3:3">
       <c r="C200" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="3:3">
       <c r="C201" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="3:3">
       <c r="C202" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="3:3">
       <c r="C203" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="3:3">
       <c r="C204" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205" spans="3:3">
       <c r="C205" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="3:3">
       <c r="C206" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207" spans="3:3">
       <c r="C207" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="3:3">
       <c r="C208" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="3:3">
       <c r="C209" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210" spans="3:3">
       <c r="C210" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211" spans="3:3">
       <c r="C211" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="212" spans="3:3">
       <c r="C212" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213" spans="3:3">
       <c r="C213" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="214" spans="3:3">
       <c r="C214" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215" spans="3:3">
       <c r="C215" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216" spans="3:3">
       <c r="C216" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217" spans="3:3">
       <c r="C217" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218" spans="3:3">
       <c r="C218" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="3:3">
       <c r="C219" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="3:3">
       <c r="C220" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="3:3">
       <c r="C221" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222" spans="3:3">
       <c r="C222" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223" spans="3:3">
       <c r="C223" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224" spans="3:3">
       <c r="C224" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225" spans="3:3">
       <c r="C225" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" spans="3:3">
@@ -2726,12 +2642,12 @@
     </row>
     <row r="227" spans="3:3">
       <c r="C227" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="3:3">
       <c r="C228" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="229" spans="3:3">
@@ -2741,12 +2657,12 @@
     </row>
     <row r="230" spans="3:3">
       <c r="C230" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="231" spans="3:3">
       <c r="C231" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232" spans="3:3">
@@ -2756,12 +2672,12 @@
     </row>
     <row r="233" spans="3:3">
       <c r="C233" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="234" spans="3:3">
       <c r="C234" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235" spans="3:3">
@@ -2771,12 +2687,12 @@
     </row>
     <row r="236" spans="3:3">
       <c r="C236" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237" spans="3:3">
       <c r="C237" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="238" spans="3:3">
@@ -2786,12 +2702,12 @@
     </row>
     <row r="239" spans="3:3">
       <c r="C239" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="240" spans="3:3">
       <c r="C240" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241" spans="3:3">
@@ -2801,12 +2717,12 @@
     </row>
     <row r="242" spans="3:3">
       <c r="C242" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243" spans="3:3">
       <c r="C243" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244" spans="3:3">
@@ -2816,12 +2732,12 @@
     </row>
     <row r="245" spans="3:3">
       <c r="C245" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="246" spans="3:3">
       <c r="C246" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247" spans="3:3">
@@ -2831,12 +2747,12 @@
     </row>
     <row r="248" spans="3:3">
       <c r="C248" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="3:3">
       <c r="C249" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="250" spans="3:3">
@@ -2846,12 +2762,12 @@
     </row>
     <row r="251" spans="3:3">
       <c r="C251" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="252" spans="3:3">
       <c r="C252" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253" spans="3:3">
@@ -2861,12 +2777,12 @@
     </row>
     <row r="254" spans="3:3">
       <c r="C254" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255" spans="3:3">
       <c r="C255" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="256" spans="3:3">
@@ -2876,12 +2792,12 @@
     </row>
     <row r="257" spans="3:3">
       <c r="C257" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="258" spans="3:3">
       <c r="C258" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259" spans="3:3">
@@ -2891,12 +2807,12 @@
     </row>
     <row r="260" spans="3:3">
       <c r="C260" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="261" spans="3:3">
       <c r="C261" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262" spans="3:3">
@@ -2906,12 +2822,12 @@
     </row>
     <row r="263" spans="3:3">
       <c r="C263" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="264" spans="3:3">
       <c r="C264" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265" spans="3:3">
@@ -2921,12 +2837,12 @@
     </row>
     <row r="266" spans="3:3">
       <c r="C266" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="267" spans="3:3">
       <c r="C267" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="268" spans="3:3">
@@ -2936,12 +2852,12 @@
     </row>
     <row r="269" spans="3:3">
       <c r="C269" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="270" spans="3:3">
       <c r="C270" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="271" spans="3:3">
@@ -2951,12 +2867,12 @@
     </row>
     <row r="272" spans="3:3">
       <c r="C272" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="273" spans="3:3">
       <c r="C273" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="274" spans="3:3">
@@ -2966,12 +2882,12 @@
     </row>
     <row r="275" spans="3:3">
       <c r="C275" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="276" spans="3:3">
       <c r="C276" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="277" spans="3:3">
@@ -2981,12 +2897,12 @@
     </row>
     <row r="278" spans="3:3">
       <c r="C278" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="279" spans="3:3">
       <c r="C279" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="280" spans="3:3">
@@ -2996,12 +2912,12 @@
     </row>
     <row r="281" spans="3:3">
       <c r="C281" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="282" spans="3:3">
       <c r="C282" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="3:3">
@@ -3011,12 +2927,12 @@
     </row>
     <row r="284" spans="3:3">
       <c r="C284" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="285" spans="3:3">
       <c r="C285" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="286" spans="3:3">
@@ -3026,12 +2942,12 @@
     </row>
     <row r="287" spans="3:3">
       <c r="C287" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="288" spans="3:3">
       <c r="C288" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="289" spans="3:3">
@@ -3041,12 +2957,12 @@
     </row>
     <row r="290" spans="3:3">
       <c r="C290" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="291" spans="3:3">
       <c r="C291" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="292" spans="3:3">
@@ -3056,12 +2972,12 @@
     </row>
     <row r="293" spans="3:3">
       <c r="C293" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="294" spans="3:3">
       <c r="C294" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="295" spans="3:3">
@@ -3071,12 +2987,12 @@
     </row>
     <row r="296" spans="3:3">
       <c r="C296" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="297" spans="3:3">
       <c r="C297" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="298" spans="3:3">
@@ -3086,12 +3002,12 @@
     </row>
     <row r="299" spans="3:3">
       <c r="C299" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="300" spans="3:3">
       <c r="C300" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301" spans="3:3">
@@ -3101,12 +3017,12 @@
     </row>
     <row r="302" spans="3:3">
       <c r="C302" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="303" spans="3:3">
       <c r="C303" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="304" spans="3:3">
@@ -3116,12 +3032,12 @@
     </row>
     <row r="305" spans="3:3">
       <c r="C305" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="306" spans="3:3">
       <c r="C306" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="307" spans="3:3">
@@ -3131,12 +3047,12 @@
     </row>
     <row r="308" spans="3:3">
       <c r="C308" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="309" spans="3:3">
       <c r="C309" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="310" spans="3:3">
@@ -3146,12 +3062,12 @@
     </row>
     <row r="311" spans="3:3">
       <c r="C311" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="312" spans="3:3">
       <c r="C312" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="313" spans="3:3">
@@ -3161,12 +3077,12 @@
     </row>
     <row r="314" spans="3:3">
       <c r="C314" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="315" spans="3:3">
       <c r="C315" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="316" spans="3:3">
@@ -3176,12 +3092,12 @@
     </row>
     <row r="317" spans="3:3">
       <c r="C317" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="318" spans="3:3">
       <c r="C318" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="319" spans="3:3">
@@ -3191,12 +3107,12 @@
     </row>
     <row r="320" spans="3:3">
       <c r="C320" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="321" spans="3:3">
       <c r="C321" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="322" spans="3:3">
@@ -3206,12 +3122,12 @@
     </row>
     <row r="323" spans="3:3">
       <c r="C323" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="324" spans="3:3">
       <c r="C324" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="325" spans="3:3">
@@ -3221,12 +3137,12 @@
     </row>
     <row r="326" spans="3:3">
       <c r="C326" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="327" spans="3:3">
       <c r="C327" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="328" spans="3:3">
@@ -3236,12 +3152,12 @@
     </row>
     <row r="329" spans="3:3">
       <c r="C329" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="330" spans="3:3">
       <c r="C330" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="331" spans="3:3">
@@ -3251,12 +3167,12 @@
     </row>
     <row r="332" spans="3:3">
       <c r="C332" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="333" spans="3:3">
       <c r="C333" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="334" spans="3:3">
@@ -3266,12 +3182,12 @@
     </row>
     <row r="335" spans="3:3">
       <c r="C335" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="336" spans="3:3">
       <c r="C336" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="337" spans="3:3">
@@ -3281,12 +3197,12 @@
     </row>
     <row r="338" spans="3:3">
       <c r="C338" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="339" spans="3:3">
       <c r="C339" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="340" spans="3:3">
@@ -3296,12 +3212,12 @@
     </row>
     <row r="341" spans="3:3">
       <c r="C341" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="342" spans="3:3">
       <c r="C342" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="343" spans="3:3">
@@ -3311,12 +3227,12 @@
     </row>
     <row r="344" spans="3:3">
       <c r="C344" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="345" spans="3:3">
       <c r="C345" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="346" spans="3:3">
@@ -3326,12 +3242,12 @@
     </row>
     <row r="347" spans="3:3">
       <c r="C347" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="348" spans="3:3">
       <c r="C348" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="349" spans="3:3">
@@ -3341,12 +3257,12 @@
     </row>
     <row r="350" spans="3:3">
       <c r="C350" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="351" spans="3:3">
       <c r="C351" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="352" spans="3:3">
@@ -3356,12 +3272,12 @@
     </row>
     <row r="353" spans="3:3">
       <c r="C353" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="354" spans="3:3">
       <c r="C354" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="355" spans="3:3">
@@ -3371,12 +3287,12 @@
     </row>
     <row r="356" spans="3:3">
       <c r="C356" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="357" spans="3:3">
       <c r="C357" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="358" spans="3:3">
@@ -3386,12 +3302,12 @@
     </row>
     <row r="359" spans="3:3">
       <c r="C359" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="360" spans="3:3">
       <c r="C360" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="361" spans="3:3">
@@ -3401,12 +3317,12 @@
     </row>
     <row r="362" spans="3:3">
       <c r="C362" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="363" spans="3:3">
       <c r="C363" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="364" spans="3:3">
@@ -3416,12 +3332,12 @@
     </row>
     <row r="365" spans="3:3">
       <c r="C365" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="366" spans="3:3">
       <c r="C366" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367" spans="3:3">
@@ -3431,12 +3347,12 @@
     </row>
     <row r="368" spans="3:3">
       <c r="C368" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="369" spans="3:3">
       <c r="C369" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="370" spans="3:3">
@@ -3446,12 +3362,12 @@
     </row>
     <row r="371" spans="3:3">
       <c r="C371" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="372" spans="3:3">
       <c r="C372" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="373" spans="3:3">
@@ -3461,12 +3377,12 @@
     </row>
     <row r="374" spans="3:3">
       <c r="C374" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="375" spans="3:3">
       <c r="C375" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="376" spans="3:3">
@@ -3476,12 +3392,12 @@
     </row>
     <row r="377" spans="3:3">
       <c r="C377" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="378" spans="3:3">
       <c r="C378" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="379" spans="3:3">
@@ -3491,12 +3407,12 @@
     </row>
     <row r="380" spans="3:3">
       <c r="C380" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="381" spans="3:3">
       <c r="C381" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="382" spans="3:3">
@@ -3506,12 +3422,12 @@
     </row>
     <row r="383" spans="3:3">
       <c r="C383" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="384" spans="3:3">
       <c r="C384" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="385" spans="3:3">
@@ -3521,12 +3437,12 @@
     </row>
     <row r="386" spans="3:3">
       <c r="C386" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="387" spans="3:3">
       <c r="C387" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="388" spans="3:3">
@@ -3536,12 +3452,12 @@
     </row>
     <row r="389" spans="3:3">
       <c r="C389" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="390" spans="3:3">
       <c r="C390" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="391" spans="3:3">
@@ -3551,12 +3467,12 @@
     </row>
     <row r="392" spans="3:3">
       <c r="C392" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="393" spans="3:3">
       <c r="C393" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="394" spans="3:3">
@@ -3566,12 +3482,12 @@
     </row>
     <row r="395" spans="3:3">
       <c r="C395" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="396" spans="3:3">
       <c r="C396" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="397" spans="3:3">
@@ -3581,12 +3497,12 @@
     </row>
     <row r="398" spans="3:3">
       <c r="C398" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="399" spans="3:3">
       <c r="C399" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="400" spans="3:3">
@@ -3596,12 +3512,12 @@
     </row>
     <row r="401" spans="3:3">
       <c r="C401" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="402" spans="3:3">
       <c r="C402" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="403" spans="3:3">
@@ -3611,12 +3527,12 @@
     </row>
     <row r="404" spans="3:3">
       <c r="C404" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="405" spans="3:3">
       <c r="C405" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="406" spans="3:3">
@@ -3626,12 +3542,12 @@
     </row>
     <row r="407" spans="3:3">
       <c r="C407" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="408" spans="3:3">
       <c r="C408" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="409" spans="3:3">
@@ -3641,12 +3557,12 @@
     </row>
     <row r="410" spans="3:3">
       <c r="C410" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="411" spans="3:3">
       <c r="C411" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="412" spans="3:3">
@@ -3656,12 +3572,12 @@
     </row>
     <row r="413" spans="3:3">
       <c r="C413" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="414" spans="3:3">
       <c r="C414" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="415" spans="3:3">
@@ -3671,12 +3587,12 @@
     </row>
     <row r="416" spans="3:3">
       <c r="C416" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="417" spans="3:3">
       <c r="C417" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="418" spans="3:3">
@@ -3686,12 +3602,12 @@
     </row>
     <row r="419" spans="3:3">
       <c r="C419" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="420" spans="3:3">
       <c r="C420" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="421" spans="3:3">
@@ -3701,12 +3617,12 @@
     </row>
     <row r="422" spans="3:3">
       <c r="C422" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="423" spans="3:3">
       <c r="C423" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="424" spans="3:3">
@@ -3716,12 +3632,12 @@
     </row>
     <row r="425" spans="3:3">
       <c r="C425" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="426" spans="3:3">
       <c r="C426" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="427" spans="3:3">
@@ -3731,12 +3647,12 @@
     </row>
     <row r="428" spans="3:3">
       <c r="C428" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="429" spans="3:3">
       <c r="C429" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="430" spans="3:3">
@@ -3746,12 +3662,12 @@
     </row>
     <row r="431" spans="3:3">
       <c r="C431" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="432" spans="3:3">
       <c r="C432" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="433" spans="3:3">
@@ -3761,12 +3677,12 @@
     </row>
     <row r="434" spans="3:3">
       <c r="C434" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="435" spans="3:3">
       <c r="C435" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="436" spans="3:3">
@@ -3776,12 +3692,12 @@
     </row>
     <row r="437" spans="3:3">
       <c r="C437" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="438" spans="3:3">
       <c r="C438" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="439" spans="3:3">
@@ -3791,12 +3707,12 @@
     </row>
     <row r="440" spans="3:3">
       <c r="C440" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="441" spans="3:3">
       <c r="C441" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="442" spans="3:3">
@@ -3806,12 +3722,12 @@
     </row>
     <row r="443" spans="3:3">
       <c r="C443" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="444" spans="3:3">
       <c r="C444" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="445" spans="3:3">
@@ -3821,12 +3737,12 @@
     </row>
     <row r="446" spans="3:3">
       <c r="C446" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="447" spans="3:3">
       <c r="C447" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="448" spans="3:3">
@@ -3836,12 +3752,12 @@
     </row>
     <row r="449" spans="3:3">
       <c r="C449" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="450" spans="3:3">
       <c r="C450" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="451" spans="3:3">
@@ -3851,12 +3767,12 @@
     </row>
     <row r="452" spans="3:3">
       <c r="C452" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="453" spans="3:3">
       <c r="C453" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="454" spans="3:3">
@@ -3866,12 +3782,12 @@
     </row>
     <row r="455" spans="3:3">
       <c r="C455" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="456" spans="3:3">
       <c r="C456" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="457" spans="3:3">
@@ -3881,12 +3797,12 @@
     </row>
     <row r="458" spans="3:3">
       <c r="C458" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="459" spans="3:3">
       <c r="C459" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="460" spans="3:3">
@@ -3896,12 +3812,12 @@
     </row>
     <row r="461" spans="3:3">
       <c r="C461" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="462" spans="3:3">
       <c r="C462" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="463" spans="3:3">
@@ -3911,12 +3827,12 @@
     </row>
     <row r="464" spans="3:3">
       <c r="C464" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="465" spans="3:3">
       <c r="C465" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="466" spans="3:3">
@@ -3926,12 +3842,12 @@
     </row>
     <row r="467" spans="3:3">
       <c r="C467" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="468" spans="3:3">
       <c r="C468" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="469" spans="3:3">
@@ -3941,12 +3857,12 @@
     </row>
     <row r="470" spans="3:3">
       <c r="C470" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="471" spans="3:3">
       <c r="C471" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="472" spans="3:3">
@@ -3956,12 +3872,12 @@
     </row>
     <row r="473" spans="3:3">
       <c r="C473" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="474" spans="3:3">
       <c r="C474" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="475" spans="3:3">
@@ -3971,12 +3887,12 @@
     </row>
     <row r="476" spans="3:3">
       <c r="C476" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="477" spans="3:3">
       <c r="C477" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="478" spans="3:3">
@@ -3986,12 +3902,12 @@
     </row>
     <row r="479" spans="3:3">
       <c r="C479" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="480" spans="3:3">
       <c r="C480" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="481" spans="3:3">
@@ -4001,12 +3917,12 @@
     </row>
     <row r="482" spans="3:3">
       <c r="C482" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="483" spans="3:3">
       <c r="C483" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="484" spans="3:3">
@@ -4016,12 +3932,12 @@
     </row>
     <row r="485" spans="3:3">
       <c r="C485" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="486" spans="3:3">
       <c r="C486" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="487" spans="3:3">
@@ -4031,12 +3947,12 @@
     </row>
     <row r="488" spans="3:3">
       <c r="C488" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="489" spans="3:3">
       <c r="C489" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="490" spans="3:3">
@@ -4046,12 +3962,12 @@
     </row>
     <row r="491" spans="3:3">
       <c r="C491" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="492" spans="3:3">
       <c r="C492" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="493" spans="3:3">
@@ -4061,12 +3977,12 @@
     </row>
     <row r="494" spans="3:3">
       <c r="C494" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="495" spans="3:3">
       <c r="C495" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="496" spans="3:3">
@@ -4076,12 +3992,12 @@
     </row>
     <row r="497" spans="3:3">
       <c r="C497" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="498" spans="3:3">
       <c r="C498" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="499" spans="3:3">
@@ -4091,12 +4007,12 @@
     </row>
     <row r="500" spans="3:3">
       <c r="C500" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="501" spans="3:3">
       <c r="C501" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="502" spans="3:3">
@@ -4106,12 +4022,12 @@
     </row>
     <row r="503" spans="3:3">
       <c r="C503" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="504" spans="3:3">
       <c r="C504" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="505" spans="3:3">
@@ -4121,12 +4037,12 @@
     </row>
     <row r="506" spans="3:3">
       <c r="C506" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="507" spans="3:3">
       <c r="C507" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="508" spans="3:3">
@@ -4136,12 +4052,12 @@
     </row>
     <row r="509" spans="3:3">
       <c r="C509" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="510" spans="3:3">
       <c r="C510" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="511" spans="3:3">
@@ -4151,12 +4067,12 @@
     </row>
     <row r="512" spans="3:3">
       <c r="C512" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="513" spans="3:3">
       <c r="C513" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="514" spans="3:3">
@@ -4166,12 +4082,12 @@
     </row>
     <row r="515" spans="3:3">
       <c r="C515" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="516" spans="3:3">
       <c r="C516" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="517" spans="3:3">
@@ -4181,12 +4097,12 @@
     </row>
     <row r="518" spans="3:3">
       <c r="C518" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="519" spans="3:3">
       <c r="C519" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="520" spans="3:3">
@@ -4196,12 +4112,12 @@
     </row>
     <row r="521" spans="3:3">
       <c r="C521" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="522" spans="3:3">
       <c r="C522" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="523" spans="3:3">
@@ -4211,12 +4127,12 @@
     </row>
     <row r="524" spans="3:3">
       <c r="C524" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="525" spans="3:3">
       <c r="C525" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="526" spans="3:3">
@@ -4226,12 +4142,12 @@
     </row>
     <row r="527" spans="3:3">
       <c r="C527" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="528" spans="3:3">
       <c r="C528" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="529" spans="3:3">
@@ -4241,12 +4157,12 @@
     </row>
     <row r="530" spans="3:3">
       <c r="C530" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="531" spans="3:3">
       <c r="C531" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="532" spans="3:3">
@@ -4256,12 +4172,12 @@
     </row>
     <row r="533" spans="3:3">
       <c r="C533" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="534" spans="3:3">
       <c r="C534" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="535" spans="3:3">
@@ -4271,12 +4187,12 @@
     </row>
     <row r="536" spans="3:3">
       <c r="C536" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="537" spans="3:3">
       <c r="C537" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="538" spans="3:3">
@@ -4286,12 +4202,12 @@
     </row>
     <row r="539" spans="3:3">
       <c r="C539" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="540" spans="3:3">
       <c r="C540" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="541" spans="3:3">
@@ -4301,12 +4217,12 @@
     </row>
     <row r="542" spans="3:3">
       <c r="C542" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="543" spans="3:3">
       <c r="C543" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="544" spans="3:3">
@@ -4316,12 +4232,12 @@
     </row>
     <row r="545" spans="3:3">
       <c r="C545" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="546" spans="3:3">
       <c r="C546" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="547" spans="3:3">
@@ -4331,12 +4247,12 @@
     </row>
     <row r="548" spans="3:3">
       <c r="C548" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="549" spans="3:3">
       <c r="C549" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="550" spans="3:3">
@@ -4346,12 +4262,12 @@
     </row>
     <row r="551" spans="3:3">
       <c r="C551" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="552" spans="3:3">
       <c r="C552" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="553" spans="3:3">
@@ -4361,12 +4277,12 @@
     </row>
     <row r="554" spans="3:3">
       <c r="C554" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="555" spans="3:3">
       <c r="C555" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="556" spans="3:3">
@@ -4376,12 +4292,12 @@
     </row>
     <row r="557" spans="3:3">
       <c r="C557" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="558" spans="3:3">
       <c r="C558" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="559" spans="3:3">
@@ -4391,12 +4307,12 @@
     </row>
     <row r="560" spans="3:3">
       <c r="C560" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="561" spans="3:3">
       <c r="C561" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="562" spans="3:3">
@@ -4406,12 +4322,12 @@
     </row>
     <row r="563" spans="3:3">
       <c r="C563" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="564" spans="3:3">
       <c r="C564" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="565" spans="3:3">
@@ -4421,12 +4337,12 @@
     </row>
     <row r="566" spans="3:3">
       <c r="C566" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="567" spans="3:3">
       <c r="C567" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="568" spans="3:3">
@@ -4436,12 +4352,12 @@
     </row>
     <row r="569" spans="3:3">
       <c r="C569" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="570" spans="3:3">
       <c r="C570" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="571" spans="3:3">
@@ -4451,12 +4367,12 @@
     </row>
     <row r="572" spans="3:3">
       <c r="C572" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="573" spans="3:3">
       <c r="C573" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="574" spans="3:3">
@@ -4466,12 +4382,12 @@
     </row>
     <row r="575" spans="3:3">
       <c r="C575" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="576" spans="3:3">
       <c r="C576" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="577" spans="3:3">
@@ -4481,12 +4397,12 @@
     </row>
     <row r="578" spans="3:3">
       <c r="C578" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="579" spans="3:3">
       <c r="C579" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="580" spans="3:3">
@@ -4496,12 +4412,12 @@
     </row>
     <row r="581" spans="3:3">
       <c r="C581" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="582" spans="3:3">
       <c r="C582" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="583" spans="3:3">
@@ -4511,12 +4427,12 @@
     </row>
     <row r="584" spans="3:3">
       <c r="C584" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="585" spans="3:3">
       <c r="C585" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="586" spans="3:3">
@@ -4526,12 +4442,12 @@
     </row>
     <row r="587" spans="3:3">
       <c r="C587" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="588" spans="3:3">
       <c r="C588" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="589" spans="3:3">
@@ -4541,12 +4457,12 @@
     </row>
     <row r="590" spans="3:3">
       <c r="C590" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="591" spans="3:3">
       <c r="C591" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="592" spans="3:3">
@@ -4556,12 +4472,12 @@
     </row>
     <row r="593" spans="3:3">
       <c r="C593" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="594" spans="3:3">
       <c r="C594" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="595" spans="3:3">
@@ -4571,12 +4487,12 @@
     </row>
     <row r="596" spans="3:3">
       <c r="C596" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="597" spans="3:3">
       <c r="C597" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="598" spans="3:3">
@@ -4586,12 +4502,12 @@
     </row>
     <row r="599" spans="3:3">
       <c r="C599" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="600" spans="3:3">
       <c r="C600" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="601" spans="3:3">
@@ -4601,12 +4517,12 @@
     </row>
     <row r="602" spans="3:3">
       <c r="C602" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="603" spans="3:3">
       <c r="C603" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="604" spans="3:3">
@@ -4616,12 +4532,12 @@
     </row>
     <row r="605" spans="3:3">
       <c r="C605" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="606" spans="3:3">
       <c r="C606" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="607" spans="3:3">
@@ -4631,12 +4547,12 @@
     </row>
     <row r="608" spans="3:3">
       <c r="C608" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="609" spans="3:3">
       <c r="C609" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="610" spans="3:3">
@@ -4646,12 +4562,12 @@
     </row>
     <row r="611" spans="3:3">
       <c r="C611" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="612" spans="3:3">
       <c r="C612" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="613" spans="3:3">
@@ -4661,12 +4577,12 @@
     </row>
     <row r="614" spans="3:3">
       <c r="C614" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="615" spans="3:3">
       <c r="C615" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="616" spans="3:3">
@@ -4676,12 +4592,12 @@
     </row>
     <row r="617" spans="3:3">
       <c r="C617" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="618" spans="3:3">
       <c r="C618" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="619" spans="3:3">
@@ -4691,12 +4607,12 @@
     </row>
     <row r="620" spans="3:3">
       <c r="C620" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="621" spans="3:3">
       <c r="C621" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="622" spans="3:3">
@@ -4706,12 +4622,12 @@
     </row>
     <row r="623" spans="3:3">
       <c r="C623" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="624" spans="3:3">
       <c r="C624" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="625" spans="3:3">
@@ -4721,12 +4637,12 @@
     </row>
     <row r="626" spans="3:3">
       <c r="C626" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="627" spans="3:3">
       <c r="C627" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="628" spans="3:3">
@@ -4736,12 +4652,12 @@
     </row>
     <row r="629" spans="3:3">
       <c r="C629" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="630" spans="3:3">
       <c r="C630" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="631" spans="3:3">
@@ -4751,12 +4667,12 @@
     </row>
     <row r="632" spans="3:3">
       <c r="C632" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="633" spans="3:3">
       <c r="C633" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="634" spans="3:3">
@@ -4766,12 +4682,12 @@
     </row>
     <row r="635" spans="3:3">
       <c r="C635" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="636" spans="3:3">
       <c r="C636" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="637" spans="3:3">
@@ -4781,12 +4697,12 @@
     </row>
     <row r="638" spans="3:3">
       <c r="C638" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="639" spans="3:3">
       <c r="C639" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="640" spans="3:3">
@@ -4796,12 +4712,12 @@
     </row>
     <row r="641" spans="3:3">
       <c r="C641" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="642" spans="3:3">
       <c r="C642" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="643" spans="3:3">
@@ -4811,12 +4727,12 @@
     </row>
     <row r="644" spans="3:3">
       <c r="C644" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="645" spans="3:3">
       <c r="C645" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="646" spans="3:3">
@@ -4826,12 +4742,12 @@
     </row>
     <row r="647" spans="3:3">
       <c r="C647" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="648" spans="3:3">
       <c r="C648" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="649" spans="3:3">
@@ -4841,12 +4757,12 @@
     </row>
     <row r="650" spans="3:3">
       <c r="C650" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="651" spans="3:3">
       <c r="C651" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="652" spans="3:3">
@@ -4856,12 +4772,12 @@
     </row>
     <row r="653" spans="3:3">
       <c r="C653" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="654" spans="3:3">
       <c r="C654" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="655" spans="3:3">
@@ -4871,12 +4787,12 @@
     </row>
     <row r="656" spans="3:3">
       <c r="C656" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="657" spans="3:3">
       <c r="C657" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="658" spans="3:3">
@@ -4886,12 +4802,12 @@
     </row>
     <row r="659" spans="3:3">
       <c r="C659" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="660" spans="3:3">
       <c r="C660" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="661" spans="3:3">
@@ -4901,12 +4817,12 @@
     </row>
     <row r="662" spans="3:3">
       <c r="C662" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="663" spans="3:3">
       <c r="C663" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="664" spans="3:3">
@@ -4916,12 +4832,12 @@
     </row>
     <row r="665" spans="3:3">
       <c r="C665" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="666" spans="3:3">
       <c r="C666" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="667" spans="3:3">
@@ -4931,12 +4847,12 @@
     </row>
     <row r="668" spans="3:3">
       <c r="C668" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="669" spans="3:3">
       <c r="C669" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="670" spans="3:3">
@@ -4946,12 +4862,12 @@
     </row>
     <row r="671" spans="3:3">
       <c r="C671" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="672" spans="3:3">
       <c r="C672" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="673" spans="3:3">
@@ -4961,12 +4877,12 @@
     </row>
     <row r="674" spans="3:3">
       <c r="C674" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="675" spans="3:3">
       <c r="C675" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="676" spans="3:3">
@@ -4976,12 +4892,12 @@
     </row>
     <row r="677" spans="3:3">
       <c r="C677" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="678" spans="3:3">
       <c r="C678" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="679" spans="3:3">
@@ -4991,12 +4907,12 @@
     </row>
     <row r="680" spans="3:3">
       <c r="C680" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="681" spans="3:3">
       <c r="C681" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="682" spans="3:3">
@@ -5006,12 +4922,12 @@
     </row>
     <row r="683" spans="3:3">
       <c r="C683" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="684" spans="3:3">
       <c r="C684" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="685" spans="3:3">
@@ -5021,12 +4937,12 @@
     </row>
     <row r="686" spans="3:3">
       <c r="C686" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="687" spans="3:3">
       <c r="C687" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="688" spans="3:3">
@@ -5036,12 +4952,12 @@
     </row>
     <row r="689" spans="3:3">
       <c r="C689" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="690" spans="3:3">
       <c r="C690" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="691" spans="3:3">
@@ -5051,12 +4967,12 @@
     </row>
     <row r="692" spans="3:3">
       <c r="C692" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="693" spans="3:3">
       <c r="C693" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="694" spans="3:3">
@@ -5066,12 +4982,12 @@
     </row>
     <row r="695" spans="3:3">
       <c r="C695" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="696" spans="3:3">
       <c r="C696" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="697" spans="3:3">
@@ -5081,12 +4997,12 @@
     </row>
     <row r="698" spans="3:3">
       <c r="C698" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="699" spans="3:3">
       <c r="C699" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="700" spans="3:3">
@@ -5096,12 +5012,12 @@
     </row>
     <row r="701" spans="3:3">
       <c r="C701" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="702" spans="3:3">
       <c r="C702" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="703" spans="3:3">
@@ -5111,12 +5027,12 @@
     </row>
     <row r="704" spans="3:3">
       <c r="C704" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="705" spans="3:3">
       <c r="C705" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="706" spans="3:3">
@@ -5126,12 +5042,12 @@
     </row>
     <row r="707" spans="3:3">
       <c r="C707" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="708" spans="3:3">
       <c r="C708" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="709" spans="3:3">
@@ -5141,12 +5057,12 @@
     </row>
     <row r="710" spans="3:3">
       <c r="C710" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="711" spans="3:3">
       <c r="C711" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="712" spans="3:3">
@@ -5156,12 +5072,12 @@
     </row>
     <row r="713" spans="3:3">
       <c r="C713" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="714" spans="3:3">
       <c r="C714" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="715" spans="3:3">
@@ -5171,12 +5087,12 @@
     </row>
     <row r="716" spans="3:3">
       <c r="C716" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="717" spans="3:3">
       <c r="C717" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="718" spans="3:3">
@@ -5186,12 +5102,12 @@
     </row>
     <row r="719" spans="3:3">
       <c r="C719" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="720" spans="3:3">
       <c r="C720" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="721" spans="3:3">
@@ -5201,12 +5117,12 @@
     </row>
     <row r="722" spans="3:3">
       <c r="C722" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="723" spans="3:3">
       <c r="C723" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="724" spans="3:3">
@@ -5216,12 +5132,12 @@
     </row>
     <row r="725" spans="3:3">
       <c r="C725" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="726" spans="3:3">
       <c r="C726" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="727" spans="3:3">
@@ -5231,12 +5147,12 @@
     </row>
     <row r="728" spans="3:3">
       <c r="C728" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="729" spans="3:3">
       <c r="C729" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="730" spans="3:3">
@@ -5246,12 +5162,12 @@
     </row>
     <row r="731" spans="3:3">
       <c r="C731" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="732" spans="3:3">
       <c r="C732" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="733" spans="3:3">
@@ -5261,12 +5177,12 @@
     </row>
     <row r="734" spans="3:3">
       <c r="C734" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="735" spans="3:3">
       <c r="C735" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="736" spans="3:3">
@@ -5276,12 +5192,12 @@
     </row>
     <row r="737" spans="3:3">
       <c r="C737" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="738" spans="3:3">
       <c r="C738" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="739" spans="3:3">
@@ -5291,12 +5207,12 @@
     </row>
     <row r="740" spans="3:3">
       <c r="C740" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="741" spans="3:3">
       <c r="C741" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="742" spans="3:3">
@@ -5306,12 +5222,12 @@
     </row>
     <row r="743" spans="3:3">
       <c r="C743" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="744" spans="3:3">
       <c r="C744" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="745" spans="3:3">
@@ -5321,12 +5237,12 @@
     </row>
     <row r="746" spans="3:3">
       <c r="C746" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="747" spans="3:3">
       <c r="C747" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="748" spans="3:3">
@@ -5336,12 +5252,12 @@
     </row>
     <row r="749" spans="3:3">
       <c r="C749" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="750" spans="3:3">
       <c r="C750" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="751" spans="3:3">
@@ -5351,12 +5267,12 @@
     </row>
     <row r="752" spans="3:3">
       <c r="C752" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="753" spans="3:3">
       <c r="C753" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="754" spans="3:3">
@@ -5366,12 +5282,12 @@
     </row>
     <row r="755" spans="3:3">
       <c r="C755" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="756" spans="3:3">
       <c r="C756" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="757" spans="3:3">
@@ -5381,12 +5297,12 @@
     </row>
     <row r="758" spans="3:3">
       <c r="C758" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="759" spans="3:3">
       <c r="C759" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="760" spans="3:3">
@@ -5396,12 +5312,12 @@
     </row>
     <row r="761" spans="3:3">
       <c r="C761" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="762" spans="3:3">
       <c r="C762" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="763" spans="3:3">
@@ -5411,12 +5327,12 @@
     </row>
     <row r="764" spans="3:3">
       <c r="C764" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="765" spans="3:3">
       <c r="C765" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="766" spans="3:3">
@@ -5426,12 +5342,12 @@
     </row>
     <row r="767" spans="3:3">
       <c r="C767" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="768" spans="3:3">
       <c r="C768" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="769" spans="3:3">
@@ -5441,12 +5357,12 @@
     </row>
     <row r="770" spans="3:3">
       <c r="C770" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="771" spans="3:3">
       <c r="C771" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="772" spans="3:3">
@@ -5456,12 +5372,12 @@
     </row>
     <row r="773" spans="3:3">
       <c r="C773" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="774" spans="3:3">
       <c r="C774" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="775" spans="3:3">
@@ -5471,12 +5387,12 @@
     </row>
     <row r="776" spans="3:3">
       <c r="C776" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="777" spans="3:3">
       <c r="C777" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="778" spans="3:3">
@@ -5486,12 +5402,12 @@
     </row>
     <row r="779" spans="3:3">
       <c r="C779" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="780" spans="3:3">
       <c r="C780" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="781" spans="3:3">
@@ -5501,12 +5417,12 @@
     </row>
     <row r="782" spans="3:3">
       <c r="C782" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="783" spans="3:3">
       <c r="C783" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="784" spans="3:3">
@@ -5516,12 +5432,12 @@
     </row>
     <row r="785" spans="3:3">
       <c r="C785" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="786" spans="3:3">
       <c r="C786" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="787" spans="3:3">
@@ -5531,12 +5447,12 @@
     </row>
     <row r="788" spans="3:3">
       <c r="C788" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="789" spans="3:3">
       <c r="C789" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="790" spans="3:3">
@@ -5546,12 +5462,12 @@
     </row>
     <row r="791" spans="3:3">
       <c r="C791" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="792" spans="3:3">
       <c r="C792" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="793" spans="3:3">
@@ -5561,12 +5477,12 @@
     </row>
     <row r="794" spans="3:3">
       <c r="C794" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="795" spans="3:3">
       <c r="C795" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="796" spans="3:3">
@@ -5576,12 +5492,12 @@
     </row>
     <row r="797" spans="3:3">
       <c r="C797" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="798" spans="3:3">
       <c r="C798" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="799" spans="3:3">
@@ -5591,12 +5507,12 @@
     </row>
     <row r="800" spans="3:3">
       <c r="C800" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="801" spans="3:3">
       <c r="C801" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="802" spans="3:3">
@@ -5606,12 +5522,12 @@
     </row>
     <row r="803" spans="3:3">
       <c r="C803" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="804" spans="3:3">
       <c r="C804" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="805" spans="3:3">
@@ -5621,12 +5537,12 @@
     </row>
     <row r="806" spans="3:3">
       <c r="C806" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="807" spans="3:3">
       <c r="C807" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="808" spans="3:3">
@@ -5636,12 +5552,12 @@
     </row>
     <row r="809" spans="3:3">
       <c r="C809" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="810" spans="3:3">
       <c r="C810" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="811" spans="3:3">
@@ -5651,12 +5567,12 @@
     </row>
     <row r="812" spans="3:3">
       <c r="C812" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="813" spans="3:3">
       <c r="C813" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="814" spans="3:3">
@@ -5666,12 +5582,12 @@
     </row>
     <row r="815" spans="3:3">
       <c r="C815" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="816" spans="3:3">
       <c r="C816" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="817" spans="3:3">
@@ -5681,12 +5597,12 @@
     </row>
     <row r="818" spans="3:3">
       <c r="C818" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="819" spans="3:3">
       <c r="C819" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="820" spans="3:3">
@@ -5696,12 +5612,12 @@
     </row>
     <row r="821" spans="3:3">
       <c r="C821" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="822" spans="3:3">
       <c r="C822" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="823" spans="3:3">
@@ -5711,12 +5627,12 @@
     </row>
     <row r="824" spans="3:3">
       <c r="C824" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="825" spans="3:3">
       <c r="C825" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="826" spans="3:3">
@@ -5726,12 +5642,12 @@
     </row>
     <row r="827" spans="3:3">
       <c r="C827" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="828" spans="3:3">
       <c r="C828" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="829" spans="3:3">
@@ -5741,12 +5657,12 @@
     </row>
     <row r="830" spans="3:3">
       <c r="C830" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="831" spans="3:3">
       <c r="C831" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="832" spans="3:3">
@@ -5756,12 +5672,12 @@
     </row>
     <row r="833" spans="3:3">
       <c r="C833" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="834" spans="3:3">
       <c r="C834" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="835" spans="3:3">
@@ -5771,12 +5687,12 @@
     </row>
     <row r="836" spans="3:3">
       <c r="C836" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="837" spans="3:3">
       <c r="C837" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="838" spans="3:3">
@@ -5786,12 +5702,12 @@
     </row>
     <row r="839" spans="3:3">
       <c r="C839" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="840" spans="3:3">
       <c r="C840" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="841" spans="3:3">
@@ -5801,12 +5717,12 @@
     </row>
     <row r="842" spans="3:3">
       <c r="C842" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="843" spans="3:3">
       <c r="C843" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="844" spans="3:3">
@@ -5816,12 +5732,12 @@
     </row>
     <row r="845" spans="3:3">
       <c r="C845" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="846" spans="3:3">
       <c r="C846" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="847" spans="3:3">
@@ -5831,12 +5747,12 @@
     </row>
     <row r="848" spans="3:3">
       <c r="C848" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="849" spans="3:3">
       <c r="C849" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="850" spans="3:3">
@@ -5846,12 +5762,12 @@
     </row>
     <row r="851" spans="3:3">
       <c r="C851" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="852" spans="3:3">
       <c r="C852" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="853" spans="3:3">
@@ -5861,12 +5777,12 @@
     </row>
     <row r="854" spans="3:3">
       <c r="C854" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="855" spans="3:3">
       <c r="C855" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="856" spans="3:3">
@@ -5876,12 +5792,12 @@
     </row>
     <row r="857" spans="3:3">
       <c r="C857" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="858" spans="3:3">
       <c r="C858" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="859" spans="3:3">
@@ -5891,12 +5807,12 @@
     </row>
     <row r="860" spans="3:3">
       <c r="C860" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="861" spans="3:3">
       <c r="C861" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="862" spans="3:3">
@@ -5906,12 +5822,12 @@
     </row>
     <row r="863" spans="3:3">
       <c r="C863" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="864" spans="3:3">
       <c r="C864" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="865" spans="3:3">
@@ -5921,12 +5837,12 @@
     </row>
     <row r="866" spans="3:3">
       <c r="C866" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="867" spans="3:3">
       <c r="C867" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="868" spans="3:3">
@@ -5936,12 +5852,12 @@
     </row>
     <row r="869" spans="3:3">
       <c r="C869" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="870" spans="3:3">
       <c r="C870" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="871" spans="3:3">
@@ -5951,12 +5867,12 @@
     </row>
     <row r="872" spans="3:3">
       <c r="C872" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="873" spans="3:3">
       <c r="C873" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="874" spans="3:3">
@@ -5966,12 +5882,12 @@
     </row>
     <row r="875" spans="3:3">
       <c r="C875" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="876" spans="3:3">
       <c r="C876" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="877" spans="3:3">
@@ -5981,12 +5897,12 @@
     </row>
     <row r="878" spans="3:3">
       <c r="C878" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="879" spans="3:3">
       <c r="C879" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="880" spans="3:3">
@@ -5996,12 +5912,12 @@
     </row>
     <row r="881" spans="3:3">
       <c r="C881" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="882" spans="3:3">
       <c r="C882" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="883" spans="3:3">
@@ -6011,12 +5927,12 @@
     </row>
     <row r="884" spans="3:3">
       <c r="C884" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="885" spans="3:3">
       <c r="C885" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="886" spans="3:3">
@@ -6026,12 +5942,12 @@
     </row>
     <row r="887" spans="3:3">
       <c r="C887" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="888" spans="3:3">
       <c r="C888" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="889" spans="3:3">
@@ -6041,12 +5957,12 @@
     </row>
     <row r="890" spans="3:3">
       <c r="C890" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="891" spans="3:3">
       <c r="C891" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="892" spans="3:3">
@@ -6056,12 +5972,12 @@
     </row>
     <row r="893" spans="3:3">
       <c r="C893" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="894" spans="3:3">
       <c r="C894" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="895" spans="3:3">
@@ -6071,12 +5987,12 @@
     </row>
     <row r="896" spans="3:3">
       <c r="C896" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="897" spans="3:3">
       <c r="C897" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="898" spans="3:3">
@@ -6086,12 +6002,12 @@
     </row>
     <row r="899" spans="3:3">
       <c r="C899" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="900" spans="3:3">
       <c r="C900" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="901" spans="3:3">
@@ -6101,12 +6017,12 @@
     </row>
     <row r="902" spans="3:3">
       <c r="C902" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="903" spans="3:3">
       <c r="C903" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="904" spans="3:3">
@@ -6116,12 +6032,12 @@
     </row>
     <row r="905" spans="3:3">
       <c r="C905" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="906" spans="3:3">
       <c r="C906" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="907" spans="3:3">
@@ -6131,12 +6047,12 @@
     </row>
     <row r="908" spans="3:3">
       <c r="C908" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="909" spans="3:3">
       <c r="C909" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="910" spans="3:3">
@@ -6146,12 +6062,12 @@
     </row>
     <row r="911" spans="3:3">
       <c r="C911" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="912" spans="3:3">
       <c r="C912" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="913" spans="3:3">
@@ -6161,12 +6077,12 @@
     </row>
     <row r="914" spans="3:3">
       <c r="C914" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="915" spans="3:3">
       <c r="C915" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="916" spans="3:3">
@@ -6176,12 +6092,12 @@
     </row>
     <row r="917" spans="3:3">
       <c r="C917" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="918" spans="3:3">
       <c r="C918" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="919" spans="3:3">
@@ -6191,12 +6107,12 @@
     </row>
     <row r="920" spans="3:3">
       <c r="C920" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="921" spans="3:3">
       <c r="C921" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="922" spans="3:3">
@@ -6206,12 +6122,12 @@
     </row>
     <row r="923" spans="3:3">
       <c r="C923" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="924" spans="3:3">
       <c r="C924" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="925" spans="3:3">
@@ -6221,12 +6137,12 @@
     </row>
     <row r="926" spans="3:3">
       <c r="C926" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="927" spans="3:3">
       <c r="C927" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="928" spans="3:3">
@@ -6236,12 +6152,12 @@
     </row>
     <row r="929" spans="3:3">
       <c r="C929" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="930" spans="3:3">
       <c r="C930" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="931" spans="3:3">
@@ -6251,12 +6167,12 @@
     </row>
     <row r="932" spans="3:3">
       <c r="C932" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="933" spans="3:3">
       <c r="C933" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="934" spans="3:3">
@@ -6266,12 +6182,12 @@
     </row>
     <row r="935" spans="3:3">
       <c r="C935" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="936" spans="3:3">
       <c r="C936" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="937" spans="3:3">
@@ -6281,12 +6197,12 @@
     </row>
     <row r="938" spans="3:3">
       <c r="C938" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="939" spans="3:3">
       <c r="C939" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="940" spans="3:3">
@@ -6296,12 +6212,12 @@
     </row>
     <row r="941" spans="3:3">
       <c r="C941" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="942" spans="3:3">
       <c r="C942" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="943" spans="3:3">
@@ -6311,12 +6227,12 @@
     </row>
     <row r="944" spans="3:3">
       <c r="C944" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="945" spans="3:3">
       <c r="C945" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="946" spans="3:3">
@@ -6326,12 +6242,12 @@
     </row>
     <row r="947" spans="3:3">
       <c r="C947" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="948" spans="3:3">
       <c r="C948" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="949" spans="3:3">
@@ -6341,12 +6257,12 @@
     </row>
     <row r="950" spans="3:3">
       <c r="C950" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="951" spans="3:3">
       <c r="C951" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="952" spans="3:3">
@@ -6356,12 +6272,12 @@
     </row>
     <row r="953" spans="3:3">
       <c r="C953" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="954" spans="3:3">
       <c r="C954" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="955" spans="3:3">
@@ -6371,12 +6287,12 @@
     </row>
     <row r="956" spans="3:3">
       <c r="C956" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="957" spans="3:3">
       <c r="C957" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="958" spans="3:3">
@@ -6386,12 +6302,12 @@
     </row>
     <row r="959" spans="3:3">
       <c r="C959" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="960" spans="3:3">
       <c r="C960" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="961" spans="3:3">
@@ -6401,12 +6317,12 @@
     </row>
     <row r="962" spans="3:3">
       <c r="C962" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="963" spans="3:3">
       <c r="C963" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="964" spans="3:3">
@@ -6416,12 +6332,12 @@
     </row>
     <row r="965" spans="3:3">
       <c r="C965" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="966" spans="3:3">
       <c r="C966" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="967" spans="3:3">
@@ -6431,12 +6347,12 @@
     </row>
     <row r="968" spans="3:3">
       <c r="C968" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="969" spans="3:3">
       <c r="C969" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="970" spans="3:3">
@@ -6446,12 +6362,12 @@
     </row>
     <row r="971" spans="3:3">
       <c r="C971" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="972" spans="3:3">
       <c r="C972" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="973" spans="3:3">
@@ -6461,12 +6377,12 @@
     </row>
     <row r="974" spans="3:3">
       <c r="C974" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="975" spans="3:3">
       <c r="C975" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="976" spans="3:3">
@@ -6476,12 +6392,12 @@
     </row>
     <row r="977" spans="3:3">
       <c r="C977" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="978" spans="3:3">
       <c r="C978" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="979" spans="3:3">
@@ -6491,12 +6407,12 @@
     </row>
     <row r="980" spans="3:3">
       <c r="C980" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="981" spans="3:3">
       <c r="C981" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="982" spans="3:3">
@@ -6506,12 +6422,12 @@
     </row>
     <row r="983" spans="3:3">
       <c r="C983" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="984" spans="3:3">
       <c r="C984" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="985" spans="3:3">
@@ -6521,12 +6437,12 @@
     </row>
     <row r="986" spans="3:3">
       <c r="C986" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="987" spans="3:3">
       <c r="C987" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="988" spans="3:3">
@@ -6536,12 +6452,12 @@
     </row>
     <row r="989" spans="3:3">
       <c r="C989" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="990" spans="3:3">
       <c r="C990" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="991" spans="3:3">
@@ -6551,12 +6467,12 @@
     </row>
     <row r="992" spans="3:3">
       <c r="C992" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="993" spans="3:3">
       <c r="C993" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="994" spans="3:3">
@@ -6566,12 +6482,12 @@
     </row>
     <row r="995" spans="3:3">
       <c r="C995" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="996" spans="3:3">
       <c r="C996" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="997" spans="3:3">
@@ -6581,12 +6497,12 @@
     </row>
     <row r="998" spans="3:3">
       <c r="C998" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="999" spans="3:3">
       <c r="C999" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1000" spans="3:3">
@@ -6596,12 +6512,12 @@
     </row>
     <row r="1001" spans="3:3">
       <c r="C1001" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1002" spans="3:3">
       <c r="C1002" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1003" spans="3:3">
@@ -6611,12 +6527,12 @@
     </row>
     <row r="1004" spans="3:3">
       <c r="C1004" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1005" spans="3:3">
       <c r="C1005" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1006" spans="3:3">
@@ -6626,12 +6542,12 @@
     </row>
     <row r="1007" spans="3:3">
       <c r="C1007" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1008" spans="3:3">
       <c r="C1008" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1009" spans="3:3">
@@ -6641,12 +6557,12 @@
     </row>
     <row r="1010" spans="3:3">
       <c r="C1010" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1011" spans="3:3">
       <c r="C1011" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1012" spans="3:3">
@@ -6656,12 +6572,12 @@
     </row>
     <row r="1013" spans="3:3">
       <c r="C1013" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1014" spans="3:3">
       <c r="C1014" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1015" spans="3:3">
@@ -6671,12 +6587,12 @@
     </row>
     <row r="1016" spans="3:3">
       <c r="C1016" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1017" spans="3:3">
       <c r="C1017" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1018" spans="3:3">
@@ -6686,12 +6602,12 @@
     </row>
     <row r="1019" spans="3:3">
       <c r="C1019" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1020" spans="3:3">
       <c r="C1020" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1021" spans="3:3">
@@ -6701,12 +6617,12 @@
     </row>
     <row r="1022" spans="3:3">
       <c r="C1022" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1023" spans="3:3">
       <c r="C1023" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1024" spans="3:3">
@@ -6716,12 +6632,12 @@
     </row>
     <row r="1025" spans="3:3">
       <c r="C1025" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1026" spans="3:3">
       <c r="C1026" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1027" spans="3:3">
@@ -6731,12 +6647,12 @@
     </row>
     <row r="1028" spans="3:3">
       <c r="C1028" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1029" spans="3:3">
       <c r="C1029" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1030" spans="3:3">
@@ -6746,12 +6662,12 @@
     </row>
     <row r="1031" spans="3:3">
       <c r="C1031" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1032" spans="3:3">
       <c r="C1032" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1033" spans="3:3">
@@ -6761,12 +6677,12 @@
     </row>
     <row r="1034" spans="3:3">
       <c r="C1034" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1035" spans="3:3">
       <c r="C1035" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1036" spans="3:3">
@@ -6776,12 +6692,12 @@
     </row>
     <row r="1037" spans="3:3">
       <c r="C1037" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1038" spans="3:3">
       <c r="C1038" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1039" spans="3:3">
@@ -6791,12 +6707,12 @@
     </row>
     <row r="1040" spans="3:3">
       <c r="C1040" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1041" spans="3:3">
       <c r="C1041" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1042" spans="3:3">
@@ -6806,12 +6722,12 @@
     </row>
     <row r="1043" spans="3:3">
       <c r="C1043" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1044" spans="3:3">
       <c r="C1044" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1045" spans="3:3">
@@ -6821,12 +6737,12 @@
     </row>
     <row r="1046" spans="3:3">
       <c r="C1046" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1047" spans="3:3">
       <c r="C1047" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1048" spans="3:3">
@@ -6836,12 +6752,12 @@
     </row>
     <row r="1049" spans="3:3">
       <c r="C1049" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1050" spans="3:3">
       <c r="C1050" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1051" spans="3:3">
@@ -6851,12 +6767,12 @@
     </row>
     <row r="1052" spans="3:3">
       <c r="C1052" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1053" spans="3:3">
       <c r="C1053" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1054" spans="3:3">
@@ -6866,12 +6782,12 @@
     </row>
     <row r="1055" spans="3:3">
       <c r="C1055" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1056" spans="3:3">
       <c r="C1056" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1057" spans="3:3">
@@ -6881,12 +6797,12 @@
     </row>
     <row r="1058" spans="3:3">
       <c r="C1058" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1059" spans="3:3">
       <c r="C1059" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1060" spans="3:3">
@@ -6896,12 +6812,12 @@
     </row>
     <row r="1061" spans="3:3">
       <c r="C1061" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1062" spans="3:3">
       <c r="C1062" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1063" spans="3:3">
@@ -6911,12 +6827,12 @@
     </row>
     <row r="1064" spans="3:3">
       <c r="C1064" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1065" spans="3:3">
       <c r="C1065" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1066" spans="3:3">
@@ -6926,12 +6842,12 @@
     </row>
     <row r="1067" spans="3:3">
       <c r="C1067" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1068" spans="3:3">
       <c r="C1068" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1069" spans="3:3">
@@ -6941,12 +6857,12 @@
     </row>
     <row r="1070" spans="3:3">
       <c r="C1070" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1071" spans="3:3">
       <c r="C1071" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1072" spans="3:3">
@@ -6956,12 +6872,12 @@
     </row>
     <row r="1073" spans="3:3">
       <c r="C1073" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1074" spans="3:3">
       <c r="C1074" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1075" spans="3:3">
@@ -6971,12 +6887,12 @@
     </row>
     <row r="1076" spans="3:3">
       <c r="C1076" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1077" spans="3:3">
       <c r="C1077" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1078" spans="3:3">
@@ -6986,12 +6902,12 @@
     </row>
     <row r="1079" spans="3:3">
       <c r="C1079" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1080" spans="3:3">
       <c r="C1080" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1081" spans="3:3">
@@ -7001,12 +6917,12 @@
     </row>
     <row r="1082" spans="3:3">
       <c r="C1082" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1083" spans="3:3">
       <c r="C1083" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1084" spans="3:3">
@@ -7016,12 +6932,12 @@
     </row>
     <row r="1085" spans="3:3">
       <c r="C1085" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1086" spans="3:3">
       <c r="C1086" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1087" spans="3:3">
@@ -7031,12 +6947,12 @@
     </row>
     <row r="1088" spans="3:3">
       <c r="C1088" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1089" spans="3:3">
       <c r="C1089" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1090" spans="3:3">
@@ -7046,12 +6962,12 @@
     </row>
     <row r="1091" spans="3:3">
       <c r="C1091" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1092" spans="3:3">
       <c r="C1092" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1093" spans="3:3">
@@ -7061,12 +6977,12 @@
     </row>
     <row r="1094" spans="3:3">
       <c r="C1094" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1095" spans="3:3">
       <c r="C1095" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1096" spans="3:3">
@@ -7076,12 +6992,12 @@
     </row>
     <row r="1097" spans="3:3">
       <c r="C1097" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1098" spans="3:3">
       <c r="C1098" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1099" spans="3:3">
@@ -7091,12 +7007,12 @@
     </row>
     <row r="1100" spans="3:3">
       <c r="C1100" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1101" spans="3:3">
       <c r="C1101" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1102" spans="3:3">
@@ -7106,12 +7022,12 @@
     </row>
     <row r="1103" spans="3:3">
       <c r="C1103" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1104" spans="3:3">
       <c r="C1104" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1105" spans="3:3">
@@ -7121,12 +7037,12 @@
     </row>
     <row r="1106" spans="3:3">
       <c r="C1106" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1107" spans="3:3">
       <c r="C1107" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1108" spans="3:3">
@@ -7136,12 +7052,12 @@
     </row>
     <row r="1109" spans="3:3">
       <c r="C1109" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1110" spans="3:3">
       <c r="C1110" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1111" spans="3:3">
@@ -7151,12 +7067,12 @@
     </row>
     <row r="1112" spans="3:3">
       <c r="C1112" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1113" spans="3:3">
       <c r="C1113" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1114" spans="3:3">
@@ -7166,12 +7082,12 @@
     </row>
     <row r="1115" spans="3:3">
       <c r="C1115" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1116" spans="3:3">
       <c r="C1116" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1117" spans="3:3">
@@ -7181,12 +7097,12 @@
     </row>
     <row r="1118" spans="3:3">
       <c r="C1118" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1119" spans="3:3">
       <c r="C1119" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1120" spans="3:3">
@@ -7196,12 +7112,12 @@
     </row>
     <row r="1121" spans="3:3">
       <c r="C1121" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1122" spans="3:3">
       <c r="C1122" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1123" spans="3:3">
@@ -7211,12 +7127,12 @@
     </row>
     <row r="1124" spans="3:3">
       <c r="C1124" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1125" spans="3:3">
       <c r="C1125" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1126" spans="3:3">
@@ -7226,12 +7142,12 @@
     </row>
     <row r="1127" spans="3:3">
       <c r="C1127" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1128" spans="3:3">
       <c r="C1128" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1129" spans="3:3">
@@ -7241,12 +7157,12 @@
     </row>
     <row r="1130" spans="3:3">
       <c r="C1130" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1131" spans="3:3">
       <c r="C1131" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1132" spans="3:3">
@@ -7256,12 +7172,12 @@
     </row>
     <row r="1133" spans="3:3">
       <c r="C1133" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1134" spans="3:3">
       <c r="C1134" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1135" spans="3:3">
@@ -7271,12 +7187,12 @@
     </row>
     <row r="1136" spans="3:3">
       <c r="C1136" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1137" spans="3:3">
       <c r="C1137" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1138" spans="3:3">
@@ -7286,12 +7202,12 @@
     </row>
     <row r="1139" spans="3:3">
       <c r="C1139" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1140" spans="3:3">
       <c r="C1140" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1141" spans="3:3">
@@ -7301,12 +7217,12 @@
     </row>
     <row r="1142" spans="3:3">
       <c r="C1142" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1143" spans="3:3">
       <c r="C1143" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1144" spans="3:3">
@@ -7316,12 +7232,12 @@
     </row>
     <row r="1145" spans="3:3">
       <c r="C1145" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1146" spans="3:3">
       <c r="C1146" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1147" spans="3:3">
@@ -7331,12 +7247,12 @@
     </row>
     <row r="1148" spans="3:3">
       <c r="C1148" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1149" spans="3:3">
       <c r="C1149" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1150" spans="3:3">
@@ -7346,12 +7262,12 @@
     </row>
     <row r="1151" spans="3:3">
       <c r="C1151" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1152" spans="3:3">
       <c r="C1152" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1153" spans="3:3">
@@ -7361,12 +7277,12 @@
     </row>
     <row r="1154" spans="3:3">
       <c r="C1154" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1155" spans="3:3">
       <c r="C1155" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1156" spans="3:3">
@@ -7376,12 +7292,12 @@
     </row>
     <row r="1157" spans="3:3">
       <c r="C1157" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1158" spans="3:3">
       <c r="C1158" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1159" spans="3:3">
@@ -7391,12 +7307,12 @@
     </row>
     <row r="1160" spans="3:3">
       <c r="C1160" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1161" spans="3:3">
       <c r="C1161" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1162" spans="3:3">
@@ -7406,12 +7322,12 @@
     </row>
     <row r="1163" spans="3:3">
       <c r="C1163" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1164" spans="3:3">
       <c r="C1164" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1165" spans="3:3">
@@ -7421,12 +7337,12 @@
     </row>
     <row r="1166" spans="3:3">
       <c r="C1166" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1167" spans="3:3">
       <c r="C1167" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1168" spans="3:3">
@@ -7436,12 +7352,12 @@
     </row>
     <row r="1169" spans="3:3">
       <c r="C1169" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1170" spans="3:3">
       <c r="C1170" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1171" spans="3:3">
@@ -7451,12 +7367,12 @@
     </row>
     <row r="1172" spans="3:3">
       <c r="C1172" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1173" spans="3:3">
       <c r="C1173" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1174" spans="3:3">
@@ -7466,12 +7382,12 @@
     </row>
     <row r="1175" spans="3:3">
       <c r="C1175" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1176" spans="3:3">
       <c r="C1176" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1177" spans="3:3">
@@ -7481,12 +7397,12 @@
     </row>
     <row r="1178" spans="3:3">
       <c r="C1178" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1179" spans="3:3">
       <c r="C1179" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1180" spans="3:3">
@@ -7496,12 +7412,12 @@
     </row>
     <row r="1181" spans="3:3">
       <c r="C1181" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1182" spans="3:3">
       <c r="C1182" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1183" spans="3:3">
@@ -7511,12 +7427,12 @@
     </row>
     <row r="1184" spans="3:3">
       <c r="C1184" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1185" spans="3:3">
       <c r="C1185" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1186" spans="3:3">
@@ -7526,12 +7442,12 @@
     </row>
     <row r="1187" spans="3:3">
       <c r="C1187" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1188" spans="3:3">
       <c r="C1188" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1189" spans="3:3">
@@ -7541,12 +7457,12 @@
     </row>
     <row r="1190" spans="3:3">
       <c r="C1190" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1191" spans="3:3">
       <c r="C1191" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1192" spans="3:3">
@@ -7556,12 +7472,12 @@
     </row>
     <row r="1193" spans="3:3">
       <c r="C1193" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1194" spans="3:3">
       <c r="C1194" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1195" spans="3:3">
@@ -7571,12 +7487,12 @@
     </row>
     <row r="1196" spans="3:3">
       <c r="C1196" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1197" spans="3:3">
       <c r="C1197" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1198" spans="3:3">
@@ -7586,12 +7502,12 @@
     </row>
     <row r="1199" spans="3:3">
       <c r="C1199" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1200" spans="3:3">
       <c r="C1200" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1201" spans="3:3">
@@ -7601,12 +7517,12 @@
     </row>
     <row r="1202" spans="3:3">
       <c r="C1202" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1203" spans="3:3">
       <c r="C1203" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1204" spans="3:3">
@@ -7616,12 +7532,12 @@
     </row>
     <row r="1205" spans="3:3">
       <c r="C1205" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1206" spans="3:3">
       <c r="C1206" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1207" spans="3:3">
@@ -7631,12 +7547,12 @@
     </row>
     <row r="1208" spans="3:3">
       <c r="C1208" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1209" spans="3:3">
       <c r="C1209" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1210" spans="3:3">
@@ -7646,12 +7562,12 @@
     </row>
     <row r="1211" spans="3:3">
       <c r="C1211" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1212" spans="3:3">
       <c r="C1212" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1213" spans="3:3">
@@ -7661,12 +7577,12 @@
     </row>
     <row r="1214" spans="3:3">
       <c r="C1214" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1215" spans="3:3">
       <c r="C1215" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1216" spans="3:3">
@@ -7676,12 +7592,12 @@
     </row>
     <row r="1217" spans="3:3">
       <c r="C1217" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1218" spans="3:3">
       <c r="C1218" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1219" spans="3:3">
@@ -7691,12 +7607,12 @@
     </row>
     <row r="1220" spans="3:3">
       <c r="C1220" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1221" spans="3:3">
       <c r="C1221" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1222" spans="3:3">
@@ -7706,12 +7622,12 @@
     </row>
     <row r="1223" spans="3:3">
       <c r="C1223" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1224" spans="3:3">
       <c r="C1224" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1225" spans="3:3">
@@ -7721,12 +7637,12 @@
     </row>
     <row r="1226" spans="3:3">
       <c r="C1226" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1227" spans="3:3">
       <c r="C1227" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1228" spans="3:3">
@@ -7736,12 +7652,12 @@
     </row>
     <row r="1229" spans="3:3">
       <c r="C1229" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1230" spans="3:3">
       <c r="C1230" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1231" spans="3:3">
@@ -7751,12 +7667,12 @@
     </row>
     <row r="1232" spans="3:3">
       <c r="C1232" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1233" spans="3:3">
       <c r="C1233" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1234" spans="3:3">
@@ -7766,12 +7682,12 @@
     </row>
     <row r="1235" spans="3:3">
       <c r="C1235" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1236" spans="3:3">
       <c r="C1236" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1237" spans="3:3">
@@ -7781,12 +7697,12 @@
     </row>
     <row r="1238" spans="3:3">
       <c r="C1238" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1239" spans="3:3">
       <c r="C1239" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1240" spans="3:3">
@@ -7796,12 +7712,12 @@
     </row>
     <row r="1241" spans="3:3">
       <c r="C1241" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1242" spans="3:3">
       <c r="C1242" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1243" spans="3:3">
@@ -7811,12 +7727,12 @@
     </row>
     <row r="1244" spans="3:3">
       <c r="C1244" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1245" spans="3:3">
       <c r="C1245" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1246" spans="3:3">
@@ -7826,12 +7742,12 @@
     </row>
     <row r="1247" spans="3:3">
       <c r="C1247" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1248" spans="3:3">
       <c r="C1248" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1249" spans="3:3">
@@ -7841,12 +7757,12 @@
     </row>
     <row r="1250" spans="3:3">
       <c r="C1250" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1251" spans="3:3">
       <c r="C1251" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1252" spans="3:3">
@@ -7856,12 +7772,12 @@
     </row>
     <row r="1253" spans="3:3">
       <c r="C1253" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1254" spans="3:3">
       <c r="C1254" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1255" spans="3:3">
@@ -7871,12 +7787,12 @@
     </row>
     <row r="1256" spans="3:3">
       <c r="C1256" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1257" spans="3:3">
       <c r="C1257" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1258" spans="3:3">
@@ -7886,12 +7802,12 @@
     </row>
     <row r="1259" spans="3:3">
       <c r="C1259" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1260" spans="3:3">
       <c r="C1260" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1261" spans="3:3">
@@ -7901,12 +7817,12 @@
     </row>
     <row r="1262" spans="3:3">
       <c r="C1262" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1263" spans="3:3">
       <c r="C1263" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1264" spans="3:3">
@@ -7916,12 +7832,12 @@
     </row>
     <row r="1265" spans="3:3">
       <c r="C1265" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1266" spans="3:3">
       <c r="C1266" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1267" spans="3:3">
@@ -7931,12 +7847,12 @@
     </row>
     <row r="1268" spans="3:3">
       <c r="C1268" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1269" spans="3:3">
       <c r="C1269" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1270" spans="3:3">
@@ -7946,12 +7862,12 @@
     </row>
     <row r="1271" spans="3:3">
       <c r="C1271" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1272" spans="3:3">
       <c r="C1272" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1273" spans="3:3">
@@ -7961,12 +7877,12 @@
     </row>
     <row r="1274" spans="3:3">
       <c r="C1274" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1275" spans="3:3">
       <c r="C1275" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1276" spans="3:3">
@@ -7976,12 +7892,12 @@
     </row>
     <row r="1277" spans="3:3">
       <c r="C1277" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1278" spans="3:3">
       <c r="C1278" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1279" spans="3:3">
@@ -7991,12 +7907,12 @@
     </row>
     <row r="1280" spans="3:3">
       <c r="C1280" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1281" spans="3:3">
       <c r="C1281" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1282" spans="3:3">
@@ -8006,12 +7922,12 @@
     </row>
     <row r="1283" spans="3:3">
       <c r="C1283" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1284" spans="3:3">
       <c r="C1284" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1285" spans="3:3">
@@ -8021,12 +7937,12 @@
     </row>
     <row r="1286" spans="3:3">
       <c r="C1286" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1287" spans="3:3">
       <c r="C1287" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1288" spans="3:3">
@@ -8036,12 +7952,12 @@
     </row>
     <row r="1289" spans="3:3">
       <c r="C1289" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1290" spans="3:3">
       <c r="C1290" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1291" spans="3:3">
@@ -8051,12 +7967,12 @@
     </row>
     <row r="1292" spans="3:3">
       <c r="C1292" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1293" spans="3:3">
       <c r="C1293" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1294" spans="3:3">
@@ -8066,12 +7982,12 @@
     </row>
     <row r="1295" spans="3:3">
       <c r="C1295" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1296" spans="3:3">
       <c r="C1296" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1297" spans="3:3">
@@ -8081,12 +7997,12 @@
     </row>
     <row r="1298" spans="3:3">
       <c r="C1298" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1299" spans="3:3">
       <c r="C1299" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1300" spans="3:3">
@@ -8096,12 +8012,12 @@
     </row>
     <row r="1301" spans="3:3">
       <c r="C1301" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1302" spans="3:3">
       <c r="C1302" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1303" spans="3:3">
@@ -8111,12 +8027,12 @@
     </row>
     <row r="1304" spans="3:3">
       <c r="C1304" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1305" spans="3:3">
       <c r="C1305" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1306" spans="3:3">
@@ -8126,12 +8042,12 @@
     </row>
     <row r="1307" spans="3:3">
       <c r="C1307" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1308" spans="3:3">
       <c r="C1308" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1309" spans="3:3">
@@ -8141,12 +8057,12 @@
     </row>
     <row r="1310" spans="3:3">
       <c r="C1310" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1311" spans="3:3">
       <c r="C1311" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1312" spans="3:3">
@@ -8156,12 +8072,12 @@
     </row>
     <row r="1313" spans="3:3">
       <c r="C1313" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1314" spans="3:3">
       <c r="C1314" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1315" spans="3:3">
@@ -8171,12 +8087,12 @@
     </row>
     <row r="1316" spans="3:3">
       <c r="C1316" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1317" spans="3:3">
       <c r="C1317" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1318" spans="3:3">
@@ -8186,12 +8102,12 @@
     </row>
     <row r="1319" spans="3:3">
       <c r="C1319" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1320" spans="3:3">
       <c r="C1320" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1321" spans="3:3">
@@ -8201,12 +8117,12 @@
     </row>
     <row r="1322" spans="3:3">
       <c r="C1322" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1323" spans="3:3">
       <c r="C1323" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1324" spans="3:3">
@@ -8216,12 +8132,12 @@
     </row>
     <row r="1325" spans="3:3">
       <c r="C1325" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1326" spans="3:3">
       <c r="C1326" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1327" spans="3:3">
@@ -8231,12 +8147,12 @@
     </row>
     <row r="1328" spans="3:3">
       <c r="C1328" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1329" spans="3:3">
       <c r="C1329" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1330" spans="3:3">
@@ -8246,12 +8162,12 @@
     </row>
     <row r="1331" spans="3:3">
       <c r="C1331" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1332" spans="3:3">
       <c r="C1332" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1333" spans="3:3">
@@ -8261,12 +8177,12 @@
     </row>
     <row r="1334" spans="3:3">
       <c r="C1334" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1335" spans="3:3">
       <c r="C1335" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1336" spans="3:3">
@@ -8276,12 +8192,12 @@
     </row>
     <row r="1337" spans="3:3">
       <c r="C1337" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1338" spans="3:3">
       <c r="C1338" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1339" spans="3:3">
@@ -8291,12 +8207,12 @@
     </row>
     <row r="1340" spans="3:3">
       <c r="C1340" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1341" spans="3:3">
       <c r="C1341" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1342" spans="3:3">
@@ -8306,12 +8222,12 @@
     </row>
     <row r="1343" spans="3:3">
       <c r="C1343" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1344" spans="3:3">
       <c r="C1344" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1345" spans="3:3">
@@ -8321,12 +8237,12 @@
     </row>
     <row r="1346" spans="3:3">
       <c r="C1346" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1347" spans="3:3">
       <c r="C1347" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1348" spans="3:3">
@@ -8336,12 +8252,12 @@
     </row>
     <row r="1349" spans="3:3">
       <c r="C1349" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1350" spans="3:3">
       <c r="C1350" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1351" spans="3:3">
@@ -8351,12 +8267,12 @@
     </row>
     <row r="1352" spans="3:3">
       <c r="C1352" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1353" spans="3:3">
       <c r="C1353" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1354" spans="3:3">
@@ -8366,12 +8282,12 @@
     </row>
     <row r="1355" spans="3:3">
       <c r="C1355" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1356" spans="3:3">
       <c r="C1356" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1357" spans="3:3">
@@ -8381,12 +8297,12 @@
     </row>
     <row r="1358" spans="3:3">
       <c r="C1358" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1359" spans="3:3">
       <c r="C1359" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1360" spans="3:3">
@@ -8396,12 +8312,12 @@
     </row>
     <row r="1361" spans="3:3">
       <c r="C1361" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1362" spans="3:3">
       <c r="C1362" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1363" spans="3:3">
@@ -8411,12 +8327,12 @@
     </row>
     <row r="1364" spans="3:3">
       <c r="C1364" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1365" spans="3:3">
       <c r="C1365" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1366" spans="3:3">
@@ -8426,12 +8342,12 @@
     </row>
     <row r="1367" spans="3:3">
       <c r="C1367" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1368" spans="3:3">
       <c r="C1368" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1369" spans="3:3">
@@ -8441,12 +8357,12 @@
     </row>
     <row r="1370" spans="3:3">
       <c r="C1370" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1371" spans="3:3">
       <c r="C1371" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1372" spans="3:3">
@@ -8456,12 +8372,12 @@
     </row>
     <row r="1373" spans="3:3">
       <c r="C1373" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1374" spans="3:3">
       <c r="C1374" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1375" spans="3:3">
@@ -8471,12 +8387,12 @@
     </row>
     <row r="1376" spans="3:3">
       <c r="C1376" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1377" spans="3:3">
       <c r="C1377" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1378" spans="3:3">
@@ -8486,12 +8402,12 @@
     </row>
     <row r="1379" spans="3:3">
       <c r="C1379" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1380" spans="3:3">
       <c r="C1380" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1381" spans="3:3">
@@ -8501,12 +8417,12 @@
     </row>
     <row r="1382" spans="3:3">
       <c r="C1382" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1383" spans="3:3">
       <c r="C1383" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1384" spans="3:3">
@@ -8516,12 +8432,12 @@
     </row>
     <row r="1385" spans="3:3">
       <c r="C1385" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1386" spans="3:3">
       <c r="C1386" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1387" spans="3:3">
@@ -8531,12 +8447,12 @@
     </row>
     <row r="1388" spans="3:3">
       <c r="C1388" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1389" spans="3:3">
       <c r="C1389" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1390" spans="3:3">
@@ -8546,12 +8462,12 @@
     </row>
     <row r="1391" spans="3:3">
       <c r="C1391" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1392" spans="3:3">
       <c r="C1392" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1393" spans="3:3">
@@ -8561,12 +8477,12 @@
     </row>
     <row r="1394" spans="3:3">
       <c r="C1394" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1395" spans="3:3">
       <c r="C1395" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1396" spans="3:3">
@@ -8576,12 +8492,12 @@
     </row>
     <row r="1397" spans="3:3">
       <c r="C1397" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1398" spans="3:3">
       <c r="C1398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1399" spans="3:3">
@@ -8591,12 +8507,12 @@
     </row>
     <row r="1400" spans="3:3">
       <c r="C1400" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1401" spans="3:3">
       <c r="C1401" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1402" spans="3:3">
@@ -8606,12 +8522,12 @@
     </row>
     <row r="1403" spans="3:3">
       <c r="C1403" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1404" spans="3:3">
       <c r="C1404" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1405" spans="3:3">
@@ -8621,12 +8537,12 @@
     </row>
     <row r="1406" spans="3:3">
       <c r="C1406" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1407" spans="3:3">
       <c r="C1407" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1408" spans="3:3">
@@ -8636,12 +8552,12 @@
     </row>
     <row r="1409" spans="3:3">
       <c r="C1409" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1410" spans="3:3">
       <c r="C1410" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1411" spans="3:3">
@@ -8651,12 +8567,12 @@
     </row>
     <row r="1412" spans="3:3">
       <c r="C1412" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1413" spans="3:3">
       <c r="C1413" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1414" spans="3:3">
@@ -8666,12 +8582,12 @@
     </row>
     <row r="1415" spans="3:3">
       <c r="C1415" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1416" spans="3:3">
       <c r="C1416" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1417" spans="3:3">
@@ -8681,12 +8597,12 @@
     </row>
     <row r="1418" spans="3:3">
       <c r="C1418" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1419" spans="3:3">
       <c r="C1419" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1420" spans="3:3">
@@ -8696,12 +8612,12 @@
     </row>
     <row r="1421" spans="3:3">
       <c r="C1421" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1422" spans="3:3">
       <c r="C1422" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1423" spans="3:3">
@@ -8711,517 +8627,517 @@
     </row>
     <row r="1424" spans="3:3">
       <c r="C1424" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1425" spans="3:3">
       <c r="C1425" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1426" spans="3:3">
       <c r="C1426" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1427" spans="3:3">
       <c r="C1427" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1428" spans="3:3">
       <c r="C1428" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1429" spans="3:3">
       <c r="C1429" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1430" spans="3:3">
       <c r="C1430" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1431" spans="3:3">
       <c r="C1431" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1432" spans="3:3">
       <c r="C1432" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1433" spans="3:3">
       <c r="C1433" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1434" spans="3:3">
       <c r="C1434" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1435" spans="3:3">
       <c r="C1435" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1436" spans="3:3">
       <c r="C1436" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1437" spans="3:3">
       <c r="C1437" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1438" spans="3:3">
       <c r="C1438" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1439" spans="3:3">
       <c r="C1439" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1440" spans="3:3">
       <c r="C1440" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1441" spans="3:3">
       <c r="C1441" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1442" spans="3:3">
       <c r="C1442" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1443" spans="3:3">
       <c r="C1443" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1444" spans="3:3">
       <c r="C1444" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1445" spans="3:3">
       <c r="C1445" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1446" spans="3:3">
       <c r="C1446" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1447" spans="3:3">
       <c r="C1447" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1448" spans="3:3">
       <c r="C1448" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1449" spans="3:3">
       <c r="C1449" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1450" spans="3:3">
       <c r="C1450" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1451" spans="3:3">
       <c r="C1451" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1452" spans="3:3">
       <c r="C1452" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1453" spans="3:3">
       <c r="C1453" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1454" spans="3:3">
       <c r="C1454" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1455" spans="3:3">
       <c r="C1455" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1456" spans="3:3">
       <c r="C1456" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1457" spans="3:3">
       <c r="C1457" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1458" spans="3:3">
       <c r="C1458" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1459" spans="3:3">
       <c r="C1459" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1460" spans="3:3">
       <c r="C1460" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1461" spans="3:3">
       <c r="C1461" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1462" spans="3:3">
       <c r="C1462" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1463" spans="3:3">
       <c r="C1463" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1464" spans="3:3">
       <c r="C1464" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1465" spans="3:3">
       <c r="C1465" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1466" spans="3:3">
       <c r="C1466" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1467" spans="3:3">
       <c r="C1467" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1468" spans="3:3">
       <c r="C1468" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1469" spans="3:3">
       <c r="C1469" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1470" spans="3:3">
       <c r="C1470" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1471" spans="3:3">
       <c r="C1471" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1472" spans="3:3">
       <c r="C1472" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1473" spans="3:3">
       <c r="C1473" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1474" spans="3:3">
       <c r="C1474" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1475" spans="3:3">
       <c r="C1475" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1476" spans="3:3">
       <c r="C1476" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1477" spans="3:3">
       <c r="C1477" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1478" spans="3:3">
       <c r="C1478" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1479" spans="3:3">
       <c r="C1479" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1480" spans="3:3">
       <c r="C1480" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1481" spans="3:3">
       <c r="C1481" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1482" spans="3:3">
       <c r="C1482" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1483" spans="3:3">
       <c r="C1483" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1484" spans="3:3">
       <c r="C1484" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1485" spans="3:3">
       <c r="C1485" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1486" spans="3:3">
       <c r="C1486" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1487" spans="3:3">
       <c r="C1487" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1488" spans="3:3">
       <c r="C1488" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1489" spans="3:3">
       <c r="C1489" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1490" spans="3:3">
       <c r="C1490" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1491" spans="3:3">
       <c r="C1491" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1492" spans="3:3">
       <c r="C1492" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1493" spans="3:3">
       <c r="C1493" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1494" spans="3:3">
       <c r="C1494" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1495" spans="3:3">
       <c r="C1495" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1496" spans="3:3">
       <c r="C1496" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1497" spans="3:3">
       <c r="C1497" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1498" spans="3:3">
       <c r="C1498" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1499" spans="3:3">
       <c r="C1499" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1500" spans="3:3">
       <c r="C1500" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1501" spans="3:3">
       <c r="C1501" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1502" spans="3:3">
       <c r="C1502" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1503" spans="3:3">
       <c r="C1503" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1504" spans="3:3">
       <c r="C1504" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1505" spans="3:3">
       <c r="C1505" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1506" spans="3:3">
       <c r="C1506" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1507" spans="3:3">
       <c r="C1507" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1508" spans="3:3">
       <c r="C1508" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1509" spans="3:3">
       <c r="C1509" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1510" spans="3:3">
       <c r="C1510" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1511" spans="3:3">
       <c r="C1511" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1512" spans="3:3">
       <c r="C1512" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1513" spans="3:3">
       <c r="C1513" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1514" spans="3:3">
       <c r="C1514" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1515" spans="3:3">
       <c r="C1515" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1516" spans="3:3">
       <c r="C1516" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1517" spans="3:3">
       <c r="C1517" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1518" spans="3:3">
       <c r="C1518" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1519" spans="3:3">
       <c r="C1519" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1520" spans="3:3">
       <c r="C1520" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1521" spans="3:3">
       <c r="C1521" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1522" spans="3:3">
       <c r="C1522" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1523" spans="3:3">
       <c r="C1523" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1524" spans="3:3">
       <c r="C1524" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1525" spans="3:3">
       <c r="C1525" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1526" spans="3:3">
       <c r="C1526" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -9259,20 +9175,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>2300000</v>
@@ -9280,23 +9196,23 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>1200</v>
@@ -9304,7 +9220,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>1200</v>
@@ -9312,7 +9228,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>1199</v>
@@ -9320,7 +9236,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9328,7 +9244,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>1200</v>
@@ -9336,25 +9252,25 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>4600000</v>
@@ -9362,23 +9278,23 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>1200</v>
@@ -9386,7 +9302,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>600</v>
@@ -9394,7 +9310,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>598</v>
@@ -9402,7 +9318,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>600</v>
@@ -9410,7 +9326,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>600</v>
@@ -9418,25 +9334,25 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>6900000</v>
@@ -9444,23 +9360,23 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>1200</v>
@@ -9468,7 +9384,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>534</v>
@@ -9476,7 +9392,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>531</v>
@@ -9484,7 +9400,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>666</v>
@@ -9492,7 +9408,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>534</v>
@@ -9500,25 +9416,25 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>9200000</v>
@@ -9526,23 +9442,23 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>1200</v>
@@ -9550,7 +9466,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>500</v>
@@ -9558,7 +9474,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>496</v>
@@ -9566,7 +9482,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>700</v>
@@ -9574,7 +9490,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>500</v>
@@ -9582,25 +9498,25 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B47">
         <v>11500000</v>
@@ -9608,23 +9524,23 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B50">
         <v>1200</v>
@@ -9632,7 +9548,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -9640,7 +9556,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -9648,7 +9564,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B53">
         <v>1195</v>
@@ -9656,7 +9572,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -9664,25 +9580,25 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>13800000</v>
@@ -9690,23 +9606,23 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B61">
         <v>1200</v>
@@ -9714,7 +9630,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -9722,7 +9638,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -9730,7 +9646,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B64">
         <v>1195</v>
@@ -9738,7 +9654,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -9746,25 +9662,25 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B69">
         <v>16100000</v>
@@ -9772,23 +9688,23 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B72">
         <v>1200</v>
@@ -9796,7 +9712,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -9804,7 +9720,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9812,7 +9728,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B75">
         <v>1195</v>
@@ -9820,7 +9736,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -9828,7 +9744,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
